--- a/docs/PTA2_DDC_100/PTA2_DDC_100_15.08.2024_output.xlsx
+++ b/docs/PTA2_DDC_100/PTA2_DDC_100_15.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L87"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731784555.189434</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731784555.8584218</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731784555.189434.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731784555.8584218.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>278.22</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>278.77</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.5499999999999545</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731784557.0109367</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731784558.1552548</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731784557.0109367.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731784558.1552548.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>279.09</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>278.37</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.7199999999999704</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731784558.8736947</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731784560.8407366</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731784558.8736947.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731784560.8407366.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>278</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>277.92</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-0.07999999999998408</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731784561.9046383</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731784562.4101694</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731784561.9046383.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731784562.4101694.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>276.68</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>277.4</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.7199999999999704</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731784563.2807186</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731784564.6080804</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731784563.2807186.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731784564.6080804.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>277.75</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>277.34</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.410000000000025</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731784567.8100863</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731784568.0683613</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731784567.8100863.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731784568.0683613.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>277.28</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>277.42</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>0.1400000000000432</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731784568.9311094</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731784569.554422</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784568.9311094.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784569.554422.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>278.22</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>278.77</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.5499999999999545</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.2</v>
       </c>
     </row>
@@ -903,51 +961,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731784570.623561</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731784571.6787374</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784570.623561.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784571.6787374.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>279.09</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>278.37</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.7199999999999704</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -955,51 +1019,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731784572.335972</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731784574.1690745</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784572.335972.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784574.1690745.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>278</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>277.92</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.07999999999998408</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -1007,51 +1077,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731784575.0407424</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731784575.3688648</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784575.0407424.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784575.3688648.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>276.68</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>277.4</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.7199999999999704</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -1059,51 +1135,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731784576.102874</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731784577.1570828</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784576.102874.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784577.1570828.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>277.75</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>277.34</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.410000000000025</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -1111,51 +1193,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731784579.3292706</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731784579.5377111</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784579.3292706.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784579.5377111.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>277.28</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>277.42</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.1400000000000432</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0.05</v>
       </c>
     </row>
@@ -1163,51 +1251,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731784580.7486742</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731784581.4191232</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784580.7486742.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784581.4191232.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>278.36</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>279.56</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>1.199999999999989</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -1215,51 +1309,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731784584.6178796</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731784588.9014645</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784584.6178796.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784588.9014645.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>278.77</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>278.05</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.7199999999999704</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.26</v>
       </c>
     </row>
@@ -1267,51 +1367,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731784589.8573918</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731784590.7869055</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784589.8573918.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/SBER1731784590.7869055.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>278.4</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>277.82</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.5799999999999841</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -1319,95 +1425,107 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731784594.1587138</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731784594.1587138.png</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731784594.1587138.png</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>277.48</v>
       </c>
-      <c r="J18" t="n">
-        <v>277.48</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>277.33</v>
+      </c>
+      <c r="M18" t="n">
+        <v>-0.1500000000000341</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731784598.0182195</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731784598.383303</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731784598.0182195.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731784598.383303.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>129.68</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>129.18</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.5</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0.39</v>
       </c>
     </row>
@@ -1415,51 +1533,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731784599.1697505</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731784606.1924534</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731784599.1697505.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731784606.1924534.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>128.89</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>128.07</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.8199999999999932</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.64</v>
       </c>
     </row>
@@ -1467,95 +1591,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731784606.8074043</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731784606.8074043.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731784606.8074043.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>127.44</v>
       </c>
-      <c r="J21" t="n">
-        <v>127.44</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>127.34</v>
+      </c>
+      <c r="M21" t="n">
+        <v>-0.09999999999999432</v>
+      </c>
+      <c r="N21" t="n">
+        <v>-0.08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731784609.2599754</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731784609.6159568</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784609.2599754.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784609.6159568.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>6360.5</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>6384.5</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>24</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -1563,51 +1699,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731784609.9823213</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731784612.2578652</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784609.9823213.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784612.2578652.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>6402</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>6378.5</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>23.5</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -1615,51 +1757,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731784613.8378642</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731784617.5934594</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784613.8378642.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784617.5934594.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>6373.5</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>6358.5</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>-15</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -1667,51 +1815,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731784618.0091705</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731784619.790045</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784618.0091705.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731784619.790045.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>6340.5</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>6352</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>11.5</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1719,51 +1873,57 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731784623.5152023</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731784626.2931592</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784623.5152023.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784626.2931592.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>498</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>495.7</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>2.300000000000011</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -1771,51 +1931,57 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731784631.5186603</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731784631.7261517</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784631.5186603.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784631.7261517.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>494.65</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>495.55</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.9000000000000341</v>
       </c>
-      <c r="L27" t="n">
+      <c r="N27" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -1823,51 +1989,57 @@
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731784631.9176416</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731784632.1330345</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784631.9176416.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731784632.1330345.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>496.3</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>495.45</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.8500000000000227</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -1875,95 +2047,107 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731784635.9335027</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731784635.9335027.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731784635.9335027.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>494.9</v>
       </c>
-      <c r="J29" t="n">
-        <v>494.9</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>495.3</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0.4000000000000341</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731784636.6157823</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731784637.8416307</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784636.6157823.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784637.8416307.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>221.82</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>222.55</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.7300000000000182</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -1971,51 +2155,57 @@
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731784638.1691062</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731784641.3346744</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784638.1691062.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784641.3346744.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>223.27</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>223.45</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>-0.1799999999999784</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -2023,51 +2213,57 @@
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731784643.423211</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731784645.2462258</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784643.423211.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784645.2462258.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>224.41</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>223.83</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.5799999999999841</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -2075,51 +2271,57 @@
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731784647.1451883</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731784649.1216948</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784647.1451883.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731784649.1216948.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>224.7</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>224.33</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.3699999999999761</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2127,51 +2329,57 @@
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731784650.3630211</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731784651.0742853</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784650.3630211.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784651.0742853.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>1027.2</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>1033.4</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>6.200000000000045</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>0.6</v>
       </c>
     </row>
@@ -2179,51 +2387,57 @@
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731784651.356591</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731784654.5687025</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784651.356591.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784654.5687025.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>1037.8</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>1037.8</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2231,51 +2445,57 @@
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731784655.5552893</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731784656.6143157</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784655.5552893.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784656.6143157.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1037.2</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1039.2</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>2</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -2283,51 +2503,57 @@
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731784658.966274</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731784661.6009555</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784658.966274.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731784661.6009555.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1034.6</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>1037.2</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>2.600000000000136</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>0.25</v>
       </c>
     </row>
@@ -2335,95 +2561,107 @@
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731784663.494688</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731784663.494688.png</t>
         </is>
       </c>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731784663.494688.png</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>1032.6</v>
       </c>
-      <c r="J38" t="n">
-        <v>1032.6</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>1032.4</v>
+      </c>
+      <c r="M38" t="n">
+        <v>-0.1999999999998181</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731784665.4303334</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731784666.1004317</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784665.4303334.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784666.1004317.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>11.994</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>11.973</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.02099999999999902</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -2431,51 +2669,57 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731784668.560317</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731784668.7091694</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784668.560317.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784668.7091694.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>12.007</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>11.987</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>0.01999999999999957</v>
       </c>
-      <c r="L40" t="n">
+      <c r="N40" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -2483,51 +2727,57 @@
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731784669.2669916</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731784673.1726491</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784669.2669916.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784673.1726491.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>12.021</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>12.053</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>-0.03200000000000003</v>
       </c>
-      <c r="L41" t="n">
+      <c r="N41" t="n">
         <v>-0.27</v>
       </c>
     </row>
@@ -2535,51 +2785,57 @@
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731784674.4450386</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731784676.8008173</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784674.4450386.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/CNY1731784676.8008173.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>12.041</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>12.053</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>0.01200000000000045</v>
       </c>
-      <c r="L42" t="n">
+      <c r="N42" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -2587,51 +2843,57 @@
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731784679.9405727</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731784680.569889</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784679.9405727.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784680.569889.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>124.76</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>125.34</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>0.5799999999999983</v>
       </c>
-      <c r="L43" t="n">
+      <c r="N43" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -2639,51 +2901,57 @@
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731784680.6098106</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731784683.569502</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784680.6098106.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784683.569502.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>125.86</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>125.28</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.5799999999999983</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -2691,51 +2959,57 @@
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731784685.087764</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731784688.1507258</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784685.087764.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784688.1507258.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>125.26</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>125.46</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.1999999999999886</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -2743,51 +3017,57 @@
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731784688.190619</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731784688.4700694</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784688.190619.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784688.4700694.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>125.6</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>125.26</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.3399999999999892</v>
       </c>
-      <c r="L46" t="n">
+      <c r="N46" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -2795,51 +3075,57 @@
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731784689.0498993</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731784689.5246286</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784689.0498993.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731784689.5246286.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>125</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>125.36</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>0.29</v>
       </c>
     </row>
@@ -2847,95 +3133,107 @@
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731784690.5665152</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731784690.5665152.png</t>
         </is>
       </c>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731784690.5665152.png</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>125.02</v>
       </c>
-      <c r="J48" t="n">
-        <v>125.02</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>125</v>
+      </c>
+      <c r="M48" t="n">
+        <v>-0.01999999999999602</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731784696.0687404</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731784696.5973256</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731784696.0687404.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731784696.5973256.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>162.8</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>162.98</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.1799999999999784</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -2943,51 +3241,57 @@
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731784696.977309</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731784699.874561</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731784696.977309.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731784699.874561.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>163.6</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>163.54</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.06000000000000227</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -2995,51 +3299,57 @@
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731784701.2616148</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731784702.0980954</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731784701.2616148.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731784702.0980954.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>163.36</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>163.98</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.6199999999999761</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>0.38</v>
       </c>
     </row>
@@ -3047,95 +3357,107 @@
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731784705.0912523</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731784705.0912523.png</t>
         </is>
       </c>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731784705.0912523.png</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>162.92</v>
       </c>
-      <c r="J52" t="n">
-        <v>162.92</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0</v>
-      </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>161.8</v>
+      </c>
+      <c r="M52" t="n">
+        <v>-1.119999999999976</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-0.6899999999999999</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731784712.1067264</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>1731784714.6576889</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784712.1067264.png</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784714.6576889.png</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="I53" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>49.99</v>
       </c>
-      <c r="J53" t="n">
+      <c r="L53" t="n">
         <v>49.825</v>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.1649999999999991</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>0.33</v>
       </c>
     </row>
@@ -3143,51 +3465,57 @@
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731784716.2349353</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731784717.3994908</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784716.2349353.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784717.3994908.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>49.735</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>49.83</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.09499999999999886</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -3195,51 +3523,57 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731784719.4522276</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731784719.9522405</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784719.4522276.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784719.9522405.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>49.895</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>49.715</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.1799999999999997</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -3247,51 +3581,57 @@
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731784720.510877</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731784725.5561354</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784720.510877.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731784725.5561354.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>49.88</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>49.96</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -3299,43 +3639,49 @@
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731784725.571095</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731784725.571095.png</t>
         </is>
       </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731784725.571095.png</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>49.96</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>49.96</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0</v>
       </c>
-      <c r="L57" t="n">
+      <c r="N57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3343,51 +3689,57 @@
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731784726.7104764</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731784727.5273533</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784726.7104764.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784727.5273533.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>1386.8</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>1391</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>4.200000000000045</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>0.3</v>
       </c>
     </row>
@@ -3395,51 +3747,57 @@
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731784727.5931768</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>1731784728.1117833</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784727.5931768.png</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784728.1117833.png</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>1395</v>
       </c>
-      <c r="J59" t="n">
+      <c r="L59" t="n">
         <v>1395</v>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3447,51 +3805,57 @@
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731784731.3256552</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731784732.5000062</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784731.3256552.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784732.5000062.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>1391.6</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>1396.8</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>5.200000000000045</v>
       </c>
-      <c r="L60" t="n">
+      <c r="N60" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -3499,51 +3863,57 @@
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731784734.6153152</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731784736.4477518</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784734.6153152.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731784736.4477518.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>1397</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>1393.4</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>3.599999999999909</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>0.26</v>
       </c>
     </row>
@@ -3551,95 +3921,107 @@
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731784739.1355824</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731784739.1355824.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731784739.1355824.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>1393.6</v>
       </c>
-      <c r="J62" t="n">
-        <v>1393.6</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
-      </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1386.4</v>
+      </c>
+      <c r="M62" t="n">
+        <v>-7.199999999999818</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731784742.9827538</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731784745.124573</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731784742.9827538.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731784745.124573.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>58.89</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>58.79</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.1000000000000014</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -3647,51 +4029,57 @@
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731784749.950156</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731784754.887515</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731784749.950156.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731784754.887515.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>58.81</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>58.89</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.07999999999999829</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -3699,51 +4087,57 @@
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731784757.8486419</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731784758.6173527</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784757.8486419.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784758.6173527.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>99.20999999999999</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>99.53</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.3200000000000074</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -3751,51 +4145,57 @@
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731784760.3435736</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731784761.8405225</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784760.3435736.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784761.8405225.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>99.81</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>99.59</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.2199999999999989</v>
       </c>
-      <c r="L66" t="n">
+      <c r="N66" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -3803,51 +4203,57 @@
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731784765.39895</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>1731784766.4135776</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784765.39895.png</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784766.4135776.png</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="I67" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>99.14</v>
       </c>
-      <c r="J67" t="n">
+      <c r="L67" t="n">
         <v>99.5</v>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.3599999999999994</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>0.36</v>
       </c>
     </row>
@@ -3855,51 +4261,57 @@
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B68" t="n">
+        <v>66</v>
+      </c>
+      <c r="C68" t="n">
+        <v>66</v>
+      </c>
+      <c r="D68" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>1731784767.6593797</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>1731784767.9846575</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784767.6593797.png</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731784767.9846575.png</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
         <v>99.67</v>
       </c>
-      <c r="J68" t="n">
+      <c r="L68" t="n">
         <v>99.45999999999999</v>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.210000000000008</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>0.21</v>
       </c>
     </row>
@@ -3907,51 +4319,57 @@
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>67</v>
+      </c>
+      <c r="D69" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>1731784776.2313309</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>1731784781.7758625</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>./test_images/SELG1731784776.2313309.png</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>./test_images/SELG1731784781.7758625.png</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="I69" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
         <v>55.6</v>
       </c>
-      <c r="J69" t="n">
+      <c r="L69" t="n">
         <v>55.56</v>
       </c>
-      <c r="K69" t="n">
+      <c r="M69" t="n">
         <v>-0.03999999999999915</v>
       </c>
-      <c r="L69" t="n">
+      <c r="N69" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -3959,51 +4377,57 @@
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="B70" t="inlineStr">
+      <c r="B70" t="n">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n">
+        <v>68</v>
+      </c>
+      <c r="D70" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>1731784784.325175</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>1731784784.8686576</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731784784.325175.png</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731784784.8686576.png</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="I70" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I70" t="n">
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
         <v>155.2</v>
       </c>
-      <c r="J70" t="n">
+      <c r="L70" t="n">
         <v>156.08</v>
       </c>
-      <c r="K70" t="n">
+      <c r="M70" t="n">
         <v>0.8800000000000239</v>
       </c>
-      <c r="L70" t="n">
+      <c r="N70" t="n">
         <v>0.5700000000000001</v>
       </c>
     </row>
@@ -4011,51 +4435,57 @@
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
-      <c r="B71" t="inlineStr">
+      <c r="B71" t="n">
+        <v>69</v>
+      </c>
+      <c r="C71" t="n">
+        <v>69</v>
+      </c>
+      <c r="D71" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t>1731784785.648399</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>1731784788.2810128</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731784785.648399.png</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731784788.2810128.png</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
         <v>157.02</v>
       </c>
-      <c r="J71" t="n">
+      <c r="L71" t="n">
         <v>156.3</v>
       </c>
-      <c r="K71" t="n">
+      <c r="M71" t="n">
         <v>0.7199999999999989</v>
       </c>
-      <c r="L71" t="n">
+      <c r="N71" t="n">
         <v>0.46</v>
       </c>
     </row>
@@ -4063,95 +4493,107 @@
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B72" t="n">
+        <v>70</v>
+      </c>
+      <c r="C72" t="n">
+        <v>70</v>
+      </c>
+      <c r="D72" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>1731784788.4220426</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731784788.4220426.png</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731784788.4220426.png</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
         <v>155.54</v>
       </c>
-      <c r="J72" t="n">
-        <v>155.54</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>154.12</v>
+      </c>
+      <c r="M72" t="n">
+        <v>-1.419999999999987</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-0.91</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
-      <c r="B73" t="inlineStr">
+      <c r="B73" t="n">
+        <v>71</v>
+      </c>
+      <c r="C73" t="n">
+        <v>71</v>
+      </c>
+      <c r="D73" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>1731784797.6870172</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>1731784800.8100712</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731784797.6870172.png</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731784800.8100712.png</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
         <v>0.3067</v>
       </c>
-      <c r="J73" t="n">
+      <c r="L73" t="n">
         <v>0.3032</v>
       </c>
-      <c r="K73" t="n">
-        <v>0.003500000000000003</v>
-      </c>
-      <c r="L73" t="n">
+      <c r="M73" t="n">
+        <v>0.003499999999999948</v>
+      </c>
+      <c r="N73" t="n">
         <v>1.14</v>
       </c>
     </row>
@@ -4159,51 +4601,57 @@
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B74" t="n">
+        <v>72</v>
+      </c>
+      <c r="C74" t="n">
+        <v>72</v>
+      </c>
+      <c r="D74" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>1731784808.4044466</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>1731784809.5319977</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731784808.4044466.png</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731784809.5319977.png</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
         <v>19.91</v>
       </c>
-      <c r="J74" t="n">
+      <c r="L74" t="n">
         <v>19.979</v>
       </c>
-      <c r="K74" t="n">
+      <c r="M74" t="n">
         <v>0.06899999999999906</v>
       </c>
-      <c r="L74" t="n">
+      <c r="N74" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -4211,51 +4659,57 @@
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
-      <c r="B75" t="inlineStr">
+      <c r="B75" t="n">
+        <v>73</v>
+      </c>
+      <c r="C75" t="n">
+        <v>73</v>
+      </c>
+      <c r="D75" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>1731784811.2210386</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>1731784812.3394597</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731784811.2210386.png</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731784812.3394597.png</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
         <v>20.067</v>
       </c>
-      <c r="J75" t="n">
+      <c r="L75" t="n">
         <v>19.966</v>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.1009999999999991</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>0.5</v>
       </c>
     </row>
@@ -4263,51 +4717,57 @@
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
-      <c r="B76" t="inlineStr">
+      <c r="B76" t="n">
+        <v>74</v>
+      </c>
+      <c r="C76" t="n">
+        <v>74</v>
+      </c>
+      <c r="D76" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>1731784813.6204076</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>1731784816.8711631</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731784813.6204076.png</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731784816.8711631.png</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
         <v>19.9</v>
       </c>
-      <c r="J76" t="n">
+      <c r="L76" t="n">
         <v>19.937</v>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.03700000000000259</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>0.19</v>
       </c>
     </row>
@@ -4315,51 +4775,57 @@
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
-      <c r="B77" t="inlineStr">
+      <c r="B77" t="n">
+        <v>75</v>
+      </c>
+      <c r="C77" t="n">
+        <v>75</v>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>1731784817.8905964</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>1731784818.1863127</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731784817.8905964.png</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731784818.1863127.png</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="I77" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I77" t="n">
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
         <v>19.854</v>
       </c>
-      <c r="J77" t="n">
+      <c r="L77" t="n">
         <v>19.901</v>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.0470000000000006</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>0.24</v>
       </c>
     </row>
@@ -4367,95 +4833,107 @@
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" t="n">
+        <v>76</v>
+      </c>
+      <c r="C78" t="n">
+        <v>76</v>
+      </c>
+      <c r="D78" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>1731784822.4681826</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731784822.4681826.png</t>
         </is>
       </c>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731784822.4681826.png</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I78" t="n">
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
         <v>19.811</v>
       </c>
-      <c r="J78" t="n">
-        <v>19.811</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0</v>
-      </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>19.826</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0.01500000000000057</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" t="n">
+        <v>77</v>
+      </c>
+      <c r="C79" t="n">
+        <v>77</v>
+      </c>
+      <c r="D79" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="E79" t="inlineStr">
         <is>
           <t>1731784823.8657045</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>1731784824.080177</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731784823.8657045.png</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731784824.080177.png</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="I79" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I79" t="n">
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
         <v>679</v>
       </c>
-      <c r="J79" t="n">
+      <c r="L79" t="n">
         <v>681.5</v>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>2.5</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>0.37</v>
       </c>
     </row>
@@ -4463,51 +4941,57 @@
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" t="n">
+        <v>78</v>
+      </c>
+      <c r="C80" t="n">
+        <v>78</v>
+      </c>
+      <c r="D80" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="E80" t="inlineStr">
         <is>
           <t>1731784825.9242532</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>1731784826.679537</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="G80" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731784825.9242532.png</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="H80" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731784826.679537.png</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="I80" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
         <v>683.45</v>
       </c>
-      <c r="J80" t="n">
+      <c r="L80" t="n">
         <v>681.15</v>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>2.300000000000068</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -4515,51 +4999,57 @@
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B81" t="n">
+        <v>79</v>
+      </c>
+      <c r="C81" t="n">
+        <v>79</v>
+      </c>
+      <c r="D81" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
+      <c r="E81" t="inlineStr">
         <is>
           <t>1731784826.8072228</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>1731784827.1485193</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731784826.8072228.png</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731784827.1485193.png</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
         <v>680</v>
       </c>
-      <c r="J81" t="n">
+      <c r="L81" t="n">
         <v>679.8</v>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>-0.2000000000000455</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>-0.03</v>
       </c>
     </row>
@@ -4567,51 +5057,57 @@
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
-      <c r="B82" t="inlineStr">
+      <c r="B82" t="n">
+        <v>80</v>
+      </c>
+      <c r="C82" t="n">
+        <v>80</v>
+      </c>
+      <c r="D82" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
+      <c r="E82" t="inlineStr">
         <is>
           <t>1731784830.55685</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
+      <c r="F82" t="inlineStr">
         <is>
           <t>1731784832.3534505</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="G82" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731784830.55685.png</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="H82" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731784832.3534505.png</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="I82" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I82" t="n">
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
         <v>676.15</v>
       </c>
-      <c r="J82" t="n">
+      <c r="L82" t="n">
         <v>677.3</v>
       </c>
-      <c r="K82" t="n">
+      <c r="M82" t="n">
         <v>1.149999999999977</v>
       </c>
-      <c r="L82" t="n">
+      <c r="N82" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -4619,95 +5115,107 @@
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
-      <c r="B83" t="inlineStr">
+      <c r="B83" t="n">
+        <v>81</v>
+      </c>
+      <c r="C83" t="n">
+        <v>81</v>
+      </c>
+      <c r="D83" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>1731784832.881907</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731784832.881907.png</t>
         </is>
       </c>
       <c r="F83" t="inlineStr"/>
       <c r="G83" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731784832.881907.png</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I83" t="n">
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
         <v>677.8</v>
       </c>
-      <c r="J83" t="n">
-        <v>677.8</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>679.3</v>
+      </c>
+      <c r="M83" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B84" t="n">
+        <v>82</v>
+      </c>
+      <c r="C84" t="n">
+        <v>82</v>
+      </c>
+      <c r="D84" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="E84" t="inlineStr">
         <is>
           <t>1731784836.1392467</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>1731784836.9218113</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731784836.1392467.png</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731784836.9218113.png</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="I84" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I84" t="n">
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
         <v>150.4</v>
       </c>
-      <c r="J84" t="n">
+      <c r="L84" t="n">
         <v>151.65</v>
       </c>
-      <c r="K84" t="n">
+      <c r="M84" t="n">
         <v>1.25</v>
       </c>
-      <c r="L84" t="n">
+      <c r="N84" t="n">
         <v>0.83</v>
       </c>
     </row>
@@ -4715,51 +5223,57 @@
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" t="n">
+        <v>83</v>
+      </c>
+      <c r="C85" t="n">
+        <v>83</v>
+      </c>
+      <c r="D85" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="E85" t="inlineStr">
         <is>
           <t>1731784838.6875079</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>1731784839.3979416</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731784838.6875079.png</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731784839.3979416.png</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="I85" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
         <v>152.36</v>
       </c>
-      <c r="J85" t="n">
+      <c r="L85" t="n">
         <v>151.4</v>
       </c>
-      <c r="K85" t="n">
+      <c r="M85" t="n">
         <v>0.960000000000008</v>
       </c>
-      <c r="L85" t="n">
+      <c r="N85" t="n">
         <v>0.63</v>
       </c>
     </row>
@@ -4767,51 +5281,57 @@
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
-      <c r="B86" t="inlineStr">
+      <c r="B86" t="n">
+        <v>84</v>
+      </c>
+      <c r="C86" t="n">
+        <v>84</v>
+      </c>
+      <c r="D86" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
+      <c r="E86" t="inlineStr">
         <is>
           <t>1731784842.1185374</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>1731784842.8119578</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731784842.1185374.png</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731784842.8119578.png</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="I86" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
         <v>150.72</v>
       </c>
-      <c r="J86" t="n">
+      <c r="L86" t="n">
         <v>151.37</v>
       </c>
-      <c r="K86" t="n">
+      <c r="M86" t="n">
         <v>0.6500000000000057</v>
       </c>
-      <c r="L86" t="n">
+      <c r="N86" t="n">
         <v>0.43</v>
       </c>
     </row>
@@ -4819,51 +5339,57 @@
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" t="n">
+        <v>85</v>
+      </c>
+      <c r="C87" t="n">
+        <v>85</v>
+      </c>
+      <c r="D87" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>1731784845.8777232</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>1731784847.6195574</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731784845.8777232.png</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731784847.6195574.png</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="I87" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
         <v>150.64</v>
       </c>
-      <c r="J87" t="n">
+      <c r="L87" t="n">
         <v>150.86</v>
       </c>
-      <c r="K87" t="n">
+      <c r="M87" t="n">
         <v>0.2200000000000273</v>
       </c>
-      <c r="L87" t="n">
+      <c r="N87" t="n">
         <v>0.15</v>
       </c>
     </row>
@@ -4925,19 +5451,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.519999999999982</v>
+        <v>3.369999999999948</v>
       </c>
       <c r="C2" t="n">
         <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3519999999999982</v>
+        <v>0.3369999999999947</v>
       </c>
       <c r="E2" t="n">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="F2" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3">
@@ -4947,16 +5473,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.059999999999974</v>
+        <v>2.039999999999978</v>
       </c>
       <c r="C3" t="n">
         <v>6</v>
       </c>
       <c r="D3" t="n">
-        <v>0.343333333333329</v>
+        <v>0.3399999999999963</v>
       </c>
       <c r="E3" t="n">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="F3" t="n">
         <v>0.27</v>
@@ -4991,19 +5517,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.2540000000000013</v>
+        <v>0.2690000000000019</v>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05080000000000027</v>
+        <v>0.05380000000000038</v>
       </c>
       <c r="E5" t="n">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="F5" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="6">
@@ -5013,19 +5539,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13</v>
+        <v>5.800000000000182</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>2.6</v>
+        <v>1.160000000000036</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9299999999999999</v>
+        <v>0.4099999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>0.19</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="7">
@@ -5035,19 +5561,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.75</v>
+        <v>4.25</v>
       </c>
       <c r="C7" t="n">
         <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>1.15</v>
+        <v>0.85</v>
       </c>
       <c r="E7" t="n">
-        <v>0.85</v>
+        <v>0.6299999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
@@ -5079,19 +5605,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.80000000000018</v>
+        <v>10.60000000000036</v>
       </c>
       <c r="C9" t="n">
         <v>5</v>
       </c>
       <c r="D9" t="n">
-        <v>2.160000000000037</v>
+        <v>2.120000000000073</v>
       </c>
       <c r="E9" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="F9" t="n">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="10">
@@ -5101,19 +5627,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.8599999999999568</v>
+        <v>-0.2600000000000193</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.2149999999999892</v>
+        <v>-0.06500000000000483</v>
       </c>
       <c r="E10" t="n">
-        <v>0.53</v>
+        <v>-0.1599999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.13</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="11">
@@ -5145,19 +5671,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.050000000000068</v>
+        <v>4.450000000000102</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>1.012500000000017</v>
+        <v>1.112500000000026</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.8899999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="13">
@@ -5255,19 +5781,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.3199999999999932</v>
+        <v>-0.4199999999999875</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1066666666666644</v>
+        <v>-0.1399999999999958</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.2500000000000001</v>
+        <v>-0.3300000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.08</v>
+        <v>-0.11</v>
       </c>
     </row>
     <row r="18">
@@ -5277,19 +5803,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1.600000000000023</v>
+        <v>0.1800000000000352</v>
       </c>
       <c r="C18" t="n">
         <v>3</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5333333333333409</v>
+        <v>0.06000000000001175</v>
       </c>
       <c r="E18" t="n">
-        <v>1.03</v>
+        <v>0.12</v>
       </c>
       <c r="F18" t="n">
-        <v>0.34</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="19">
@@ -5321,13 +5847,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.003500000000000003</v>
+        <v>0.003499999999999948</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.003500000000000003</v>
+        <v>0.003499999999999948</v>
       </c>
       <c r="E20" t="n">
         <v>1.14</v>
